--- a/fr/fr-pron.xlsx
+++ b/fr/fr-pron.xlsx
@@ -814,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,12 +828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1399,7 +1393,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1419,83 +1413,83 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="17.55" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1517,7 +1511,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="B2:F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1527,91 +1521,91 @@
   <sheetData>
     <row r="1" ht="17.55" spans="1:6">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="17.55" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="17.55" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
     </row>

--- a/fr/fr-pron.xlsx
+++ b/fr/fr-pron.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pron" sheetId="2" r:id="rId1"/>
-    <sheet name="pron-poss" sheetId="3" r:id="rId2"/>
-    <sheet name="prep-coal" sheetId="1" r:id="rId3"/>
+    <sheet name="poss" sheetId="3" r:id="rId2"/>
+    <sheet name="art-coal" sheetId="1" r:id="rId3"/>
+    <sheet name="prep" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>单数</t>
   </si>
@@ -170,6 +171,36 @@
   </si>
   <si>
     <t>aux</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>devant</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>derrière</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>sur</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>sous</t>
+  </si>
+  <si>
+    <t>under</t>
   </si>
 </sst>
 </file>
@@ -529,40 +560,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -690,7 +692,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,34 +704,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,48 +816,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1392,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1401,95 +1388,95 @@
     <col min="3" max="3" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="17.55" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1511,7 +1498,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1519,93 +1506,93 @@
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="17.55" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="17.55" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1626,28 +1613,28 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1671,24 +1658,83 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="17.55" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-pron.xlsx
+++ b/fr/fr-pron.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="3"/>
+    <workbookView windowWidth="30240" windowHeight="13960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pron" sheetId="2" r:id="rId1"/>
     <sheet name="poss" sheetId="3" r:id="rId2"/>
     <sheet name="art-coal" sheetId="1" r:id="rId3"/>
-    <sheet name="prep" sheetId="4" r:id="rId4"/>
+    <sheet name="prep-loc" sheetId="4" r:id="rId4"/>
+    <sheet name="prep-time" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>单数</t>
   </si>
@@ -182,7 +183,7 @@
     <t>devant</t>
   </si>
   <si>
-    <t>front</t>
+    <t>in front of</t>
   </si>
   <si>
     <t>derrière</t>
@@ -201,6 +202,138 @@
   </si>
   <si>
     <t>under</t>
+  </si>
+  <si>
+    <t>au-dessus de</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>dans</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>hors de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out of </t>
+  </si>
+  <si>
+    <t>chez</t>
+  </si>
+  <si>
+    <t>en dehors de</t>
+  </si>
+  <si>
+    <t>en haut</t>
+  </si>
+  <si>
+    <t>at the top</t>
+  </si>
+  <si>
+    <t>en bas</t>
+  </si>
+  <si>
+    <t>at the bottom</t>
+  </si>
+  <si>
+    <t>à gauche</t>
+  </si>
+  <si>
+    <t>on the left</t>
+  </si>
+  <si>
+    <t>à droite</t>
+  </si>
+  <si>
+    <t>on the right</t>
+  </si>
+  <si>
+    <t>près de</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>loin de</t>
+  </si>
+  <si>
+    <t>far from</t>
+  </si>
+  <si>
+    <t>intérieur de</t>
+  </si>
+  <si>
+    <t>inside of</t>
+  </si>
+  <si>
+    <t>extérieur de</t>
+  </si>
+  <si>
+    <t>outside of</t>
+  </si>
+  <si>
+    <t>en face de</t>
+  </si>
+  <si>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>contre</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>autour de</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>à côté de</t>
+  </si>
+  <si>
+    <t>next to</t>
+  </si>
+  <si>
+    <t>entre</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>depuis</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>jusque à</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>au début</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à la fin </t>
+  </si>
+  <si>
+    <t>avant que</t>
+  </si>
+  <si>
+    <t>après</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pendant que </t>
   </si>
 </sst>
 </file>
@@ -816,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,23 +959,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1380,7 +1498,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1401,82 +1519,82 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1520,79 +1638,79 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1687,13 +1805,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="10.7692307692308" customWidth="1"/>
+    <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
+    <col min="4" max="4" width="14.1538461538462" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1736,6 +1860,221 @@
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="8.38461538461539" customWidth="1"/>
+    <col min="3" max="3" width="8.92307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-pron.xlsx
+++ b/fr/fr-pron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13960" activeTab="4"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pron" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>单数</t>
   </si>
@@ -180,6 +180,12 @@
     <t>English</t>
   </si>
   <si>
+    <t>dans</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>devant</t>
   </si>
   <si>
@@ -192,6 +198,12 @@
     <t>behind</t>
   </si>
   <si>
+    <t>chez</t>
+  </si>
+  <si>
+    <t>in + sb.</t>
+  </si>
+  <si>
     <t>sur</t>
   </si>
   <si>
@@ -204,6 +216,12 @@
     <t>under</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>at + m.</t>
+  </si>
+  <si>
     <t>au-dessus de</t>
   </si>
   <si>
@@ -213,10 +231,85 @@
     <t>below</t>
   </si>
   <si>
-    <t>dans</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>at + f.</t>
+  </si>
+  <si>
+    <t>en haut</t>
+  </si>
+  <si>
+    <t>at the top</t>
+  </si>
+  <si>
+    <t>en bas</t>
+  </si>
+  <si>
+    <t>at the bottom</t>
+  </si>
+  <si>
+    <t>entre</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>à gauche</t>
+  </si>
+  <si>
+    <t>on the left</t>
+  </si>
+  <si>
+    <t>à droite</t>
+  </si>
+  <si>
+    <t>on the right</t>
+  </si>
+  <si>
+    <t>près de</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>loin de</t>
+  </si>
+  <si>
+    <t>far from</t>
+  </si>
+  <si>
+    <t>intérieur de</t>
+  </si>
+  <si>
+    <t>inside of</t>
+  </si>
+  <si>
+    <t>extérieur de</t>
+  </si>
+  <si>
+    <t>outside of</t>
+  </si>
+  <si>
+    <t>en face de</t>
+  </si>
+  <si>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>contre</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>autour de</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>à côté de</t>
+  </si>
+  <si>
+    <t>next to</t>
   </si>
   <si>
     <t>hors de</t>
@@ -225,88 +318,7 @@
     <t xml:space="preserve">out of </t>
   </si>
   <si>
-    <t>chez</t>
-  </si>
-  <si>
     <t>en dehors de</t>
-  </si>
-  <si>
-    <t>en haut</t>
-  </si>
-  <si>
-    <t>at the top</t>
-  </si>
-  <si>
-    <t>en bas</t>
-  </si>
-  <si>
-    <t>at the bottom</t>
-  </si>
-  <si>
-    <t>à gauche</t>
-  </si>
-  <si>
-    <t>on the left</t>
-  </si>
-  <si>
-    <t>à droite</t>
-  </si>
-  <si>
-    <t>on the right</t>
-  </si>
-  <si>
-    <t>près de</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>loin de</t>
-  </si>
-  <si>
-    <t>far from</t>
-  </si>
-  <si>
-    <t>intérieur de</t>
-  </si>
-  <si>
-    <t>inside of</t>
-  </si>
-  <si>
-    <t>extérieur de</t>
-  </si>
-  <si>
-    <t>outside of</t>
-  </si>
-  <si>
-    <t>en face de</t>
-  </si>
-  <si>
-    <t>facing</t>
-  </si>
-  <si>
-    <t>contre</t>
-  </si>
-  <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>autour de</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>à côté de</t>
-  </si>
-  <si>
-    <t>next to</t>
-  </si>
-  <si>
-    <t>entre</t>
-  </si>
-  <si>
-    <t>between</t>
   </si>
   <si>
     <t>depuis</t>
@@ -1497,8 +1509,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1805,21 +1817,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.0769230769231" customWidth="1"/>
-    <col min="2" max="2" width="10.7692307692308" customWidth="1"/>
     <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="14.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="10.7692307692308" customWidth="1"/>
+    <col min="5" max="5" width="12.9230769230769" customWidth="1"/>
+    <col min="6" max="6" width="14.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1832,8 +1844,14 @@
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1846,157 +1864,165 @@
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2008,8 +2034,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2035,39 +2061,39 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/fr/fr-pron.xlsx
+++ b/fr/fr-pron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="3"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="pron" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>单数</t>
   </si>
@@ -45,12 +45,21 @@
     <t>宾格</t>
   </si>
   <si>
+    <t>与格</t>
+  </si>
+  <si>
+    <t>重读</t>
+  </si>
+  <si>
     <t>第一人称</t>
   </si>
   <si>
     <t>je</t>
   </si>
   <si>
+    <t>me</t>
+  </si>
+  <si>
     <t>moi</t>
   </si>
   <si>
@@ -63,6 +72,9 @@
     <t>tu</t>
   </si>
   <si>
+    <t>te</t>
+  </si>
+  <si>
     <t>toi</t>
   </si>
   <si>
@@ -75,18 +87,27 @@
     <t>il</t>
   </si>
   <si>
+    <t>le</t>
+  </si>
+  <si>
     <t>lui</t>
   </si>
   <si>
     <t>ils</t>
   </si>
   <si>
+    <t>leur</t>
+  </si>
+  <si>
     <t>eux</t>
   </si>
   <si>
     <t>elle</t>
   </si>
   <si>
+    <t>la</t>
+  </si>
+  <si>
     <t>elles</t>
   </si>
   <si>
@@ -135,9 +156,6 @@
     <t>ses</t>
   </si>
   <si>
-    <t>leur</t>
-  </si>
-  <si>
     <t>leurs</t>
   </si>
   <si>
@@ -151,9 +169,6 @@
   </si>
   <si>
     <t>de</t>
-  </si>
-  <si>
-    <t>le</t>
   </si>
   <si>
     <t>du</t>
@@ -961,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +987,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1507,29 +1528,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="3" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1538,84 +1562,125 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="11">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G5:H6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1651,10 +1716,10 @@
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1668,62 +1733,62 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1750,62 +1815,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1884,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1833,189 +1898,189 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="5:6">
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2047,53 +2112,53 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
